--- a/biology/Zoologie/Cardisoma_guanhumi/Cardisoma_guanhumi.xlsx
+++ b/biology/Zoologie/Cardisoma_guanhumi/Cardisoma_guanhumi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardisoma guanhumi, appelé communément aux Antilles crabe de terre commun, crabe terrestre blanc ou crabe terrestre bleu, est un crabe du genre Cardisoma appartenant à la famille des Gecarcinidae qui vit en sur les côtes américaines de l'Atlantique nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est doté d'une carapace épaisse, lisse et fortement bombée, de couleur variable suivant l'âge (de bleuté, gris à blanchâtre).  Elle peut atteindre 12 cm de large. 
 La première paire de pattes est dissymétrique. L'article supérieur des pattes locomotrices comporte quatre rangées d'épines.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans :
 la Caraïbe ;
@@ -581,7 +597,9 @@
           <t>Habitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un crabe terrestre mais ayant conservé la capacité à respirer avec des branchies. Il vit dans les milieux humides à proximité du rivage, comme les marais, les mangroves et les berges des cours d'eau. Il creuse un terrier qui mène à une nappe d'eau souterraine, se nourrit de végétaux mais aussi de charogne.
 </t>
@@ -612,7 +630,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En Guadeloupe et en Martinique, le crabe de terre est capturé en grandes quantités et consommé traditionnellement lors des célébrations des fêtes de Pâques et de Pentecôte. 
 Il est tellement populaire en Martinique que sa chasse y est règlementée : la capture, la vente et l'achat de ce crabe n'est autorisé que du 15 février au 15 juillet pour les individus dont la carapace fait plus de 7 cm de largeur. De juillet à septembre, sa capture est interdite pour le laisser se reproduire.
@@ -645,7 +665,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Latreille, 1828 : Histoire Naturelle. Entomologie, ou Histoire naturelle des Crustacés, des Arachnides et des Insectes. Encyclopédie Méthodique, vol. 10, p. 1-832.</t>
@@ -676,7 +698,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ucides cordatus</t>
         </is>
